--- a/UseCaseDiagram/DocumentacaoCasosDeUso.xlsx
+++ b/UseCaseDiagram/DocumentacaoCasosDeUso.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+  <si>
+    <t>2.1.3 - Documentação dos casos de uso</t>
+  </si>
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -175,18 +178,87 @@
   </si>
   <si>
     <t xml:space="preserve">Se passar do prazo para regularização </t>
+  </si>
+  <si>
+    <t>1. Inserir dados referente a infração</t>
+  </si>
+  <si>
+    <t>2. Verificar numero da notificação  se é existente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exibe infração </t>
+  </si>
+  <si>
+    <t>4. Avança para o Caso de Uso Adicionar Creditos, Levando informação do valor da infração para quitação</t>
+  </si>
+  <si>
+    <t>UC005 - Compra de creditos</t>
+  </si>
+  <si>
+    <t>Funcionario</t>
+  </si>
+  <si>
+    <t>Nesse Caso de Uso, Clientes poderão fazer a aquisição de creditos para estacionamento, os quais deverão selecionar o valor do crédito e escolher a forma de pagamento, em alguns casos o cliente vai vir redirecionado da aba de Regularização
+Já o Funcionario, poderá realizar a venda dos créditos ao cliente.</t>
+  </si>
+  <si>
+    <t>Se passar do prazo para regularização a infração se tornará uma infração de transito, sendo enviado ao Detran</t>
+  </si>
+  <si>
+    <t>1. Selecionar a opção "Credit"</t>
+  </si>
+  <si>
+    <t>2. Apresentar opções de valores para compra de crédito</t>
+  </si>
+  <si>
+    <t>3 . Avançar para pagamento</t>
+  </si>
+  <si>
+    <t>3. Apresentar formas de pagamento</t>
+  </si>
+  <si>
+    <t>4. Selecionar forma de pagamento</t>
+  </si>
+  <si>
+    <t>5 . Inserir dados conforme forma de pagamento</t>
+  </si>
+  <si>
+    <t>6. Confirmação do pagamento</t>
+  </si>
+  <si>
+    <t>7. Validação do pagamento</t>
+  </si>
+  <si>
+    <t>8 . Confirmação do recebimento</t>
+  </si>
+  <si>
+    <t>9. Exibir mensagem de Exito</t>
+  </si>
+  <si>
+    <t>UC006 - Gerar Extrato</t>
+  </si>
+  <si>
+    <t>Permite o Cliente gerar um extrato de todas as operações financeiras realizadas no aplicativo</t>
+  </si>
+  <si>
+    <t>1. Mostrar operações financeiras do Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -234,73 +306,79 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,474 +604,756 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="19">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="24">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-    </row>
     <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="10"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="A35" s="10"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="16"/>
-    </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="s">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="12" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="16"/>
       <c r="B43" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="17"/>
+      <c r="B45" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="13" t="s">
+    <row r="46">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" ht="50.25" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="13" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="12" t="s">
+    <row r="49">
+      <c r="A49" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="B50" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="16"/>
-    </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="s">
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="12" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="16"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="16"/>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="13" t="s">
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="17"/>
+      <c r="B70" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="16"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="B73" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="82">
-      <c r="A82" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="13" t="s">
+    <row r="84">
+      <c r="A84" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="11" t="s">
+    <row r="85">
+      <c r="A85" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="12" t="s">
+      <c r="B85" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="12" t="s">
+    </row>
+    <row r="87">
+      <c r="A87" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="B87" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="23"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="23"/>
+      <c r="B89" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="23"/>
+      <c r="B90" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="23"/>
+      <c r="B91" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="23"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="23"/>
+      <c r="B107" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" s="23"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="23"/>
+      <c r="B109" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="23"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="23"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="22"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="23"/>
+      <c r="B113" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="23"/>
+      <c r="B114" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="23"/>
+      <c r="B115" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="22"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="22"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="22"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="23"/>
+      <c r="B129" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A84:B84"/>
+  <mergeCells count="11">
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
